--- a/1-nas/MPI_A_io.xlsx
+++ b/1-nas/MPI_A_io.xlsx
@@ -33,9 +33,6 @@
     <sheet name="sp.MPI.A.9" sheetId="7" r:id="rId19"/>
     <sheet name="sp.MPI.A.16" sheetId="8" r:id="rId20"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId21"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -981,11 +978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425872200"/>
-        <c:axId val="425874552"/>
+        <c:axId val="377231992"/>
+        <c:axId val="378445296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425872200"/>
+        <c:axId val="377231992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1080,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425874552"/>
+        <c:crossAx val="378445296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425874552"/>
+        <c:axId val="378445296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70000000"/>
@@ -1199,7 +1196,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425872200"/>
+        <c:crossAx val="377231992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1474,11 +1471,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="437306184"/>
-        <c:axId val="437306576"/>
+        <c:axId val="378455488"/>
+        <c:axId val="378455880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="437306184"/>
+        <c:axId val="378455488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1518,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437306576"/>
+        <c:crossAx val="378455880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1529,7 +1526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437306576"/>
+        <c:axId val="378455880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1577,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437306184"/>
+        <c:crossAx val="378455488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1858,11 +1855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="566019720"/>
-        <c:axId val="566025992"/>
+        <c:axId val="378456664"/>
+        <c:axId val="378457056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="566019720"/>
+        <c:axId val="378456664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +1902,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566025992"/>
+        <c:crossAx val="378457056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1913,7 +1910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="566025992"/>
+        <c:axId val="378457056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +1961,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566019720"/>
+        <c:crossAx val="378456664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2330,11 +2327,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="566021288"/>
-        <c:axId val="566018544"/>
+        <c:axId val="378457840"/>
+        <c:axId val="378458232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="566021288"/>
+        <c:axId val="378457840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2374,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566018544"/>
+        <c:crossAx val="378458232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2385,7 +2382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="566018544"/>
+        <c:axId val="378458232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2437,7 +2434,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566021288"/>
+        <c:crossAx val="378457840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2649,11 +2646,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432494760"/>
-        <c:axId val="432495152"/>
+        <c:axId val="378459016"/>
+        <c:axId val="378459408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432494760"/>
+        <c:axId val="378459016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2693,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432495152"/>
+        <c:crossAx val="378459408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2704,7 +2701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432495152"/>
+        <c:axId val="378459408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,7 +2752,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432494760"/>
+        <c:crossAx val="378459016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2824,13 +2821,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2838,9 +2849,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Rede</a:t>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Rede MPI-2 EP-Classe A</a:t>
             </a:r>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2857,13 +2879,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2879,7 +2915,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2988,17 +3024,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="461255808"/>
-        <c:axId val="461256200"/>
+        <c:axId val="378460192"/>
+        <c:axId val="378460584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="461255808"/>
+        <c:axId val="378460192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3036,7 +3127,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461256200"/>
+        <c:crossAx val="378460584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3044,7 +3135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461256200"/>
+        <c:axId val="378460584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,6 +3155,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>total Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3095,7 +3242,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461255808"/>
+        <c:crossAx val="378460192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3293,11 +3440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="461256984"/>
-        <c:axId val="461257376"/>
+        <c:axId val="378987344"/>
+        <c:axId val="378987736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="461256984"/>
+        <c:axId val="378987344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3340,7 +3487,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461257376"/>
+        <c:crossAx val="378987736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3348,7 +3495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461257376"/>
+        <c:axId val="378987736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3546,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461256984"/>
+        <c:crossAx val="378987344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3615,11 +3762,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="461258160"/>
-        <c:axId val="461258552"/>
+        <c:axId val="378988520"/>
+        <c:axId val="378988912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="461258160"/>
+        <c:axId val="378988520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +3809,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461258552"/>
+        <c:crossAx val="378988912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3670,7 +3817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461258552"/>
+        <c:axId val="378988912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3721,7 +3868,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461258160"/>
+        <c:crossAx val="378988520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3914,11 +4061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461259336"/>
-        <c:axId val="461259728"/>
+        <c:axId val="378989696"/>
+        <c:axId val="378990088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="461259336"/>
+        <c:axId val="378989696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3961,7 +4108,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461259728"/>
+        <c:crossAx val="378990088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3969,7 +4116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461259728"/>
+        <c:axId val="378990088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4020,7 +4167,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461259336"/>
+        <c:crossAx val="378989696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4230,11 +4377,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="461260512"/>
-        <c:axId val="461260904"/>
+        <c:axId val="378990872"/>
+        <c:axId val="378991264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="461260512"/>
+        <c:axId val="378990872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,7 +4424,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461260904"/>
+        <c:crossAx val="378991264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4285,7 +4432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461260904"/>
+        <c:axId val="378991264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4336,7 +4483,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461260512"/>
+        <c:crossAx val="378990872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4542,11 +4689,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="461261688"/>
-        <c:axId val="461262080"/>
+        <c:axId val="378992048"/>
+        <c:axId val="378992440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="461261688"/>
+        <c:axId val="378992048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4589,7 +4736,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461262080"/>
+        <c:crossAx val="378992440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4597,7 +4744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461262080"/>
+        <c:axId val="378992440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4648,7 +4795,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461261688"/>
+        <c:crossAx val="378992048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5033,11 +5180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555529240"/>
-        <c:axId val="555529632"/>
+        <c:axId val="378446080"/>
+        <c:axId val="378446472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555529240"/>
+        <c:axId val="378446080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5135,7 +5282,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555529632"/>
+        <c:crossAx val="378446472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5143,7 +5290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555529632"/>
+        <c:axId val="378446472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500000000"/>
@@ -5251,7 +5398,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555529240"/>
+        <c:crossAx val="378446080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -5385,13 +5532,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5399,8 +5560,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Rede</a:t>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Rede MPI-4 EP-Classe A</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5418,13 +5589,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5440,7 +5625,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5468,10 +5653,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>ep.MPI.A.4!$K$3:$K$6</c:f>
+              <c:f>ep.MPI.A.4!$K$3:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>791084</c:v>
                 </c:pt>
@@ -5511,10 +5696,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>ep.MPI.A.4!$L$3:$L$6</c:f>
+              <c:f>ep.MPI.A.4!$L$3:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>171938</c:v>
                 </c:pt>
@@ -5537,17 +5722,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="461262864"/>
-        <c:axId val="461263256"/>
+        <c:axId val="378993224"/>
+        <c:axId val="378993616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="461262864"/>
+        <c:axId val="378993224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5585,7 +5825,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461263256"/>
+        <c:crossAx val="378993616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5593,7 +5833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461263256"/>
+        <c:axId val="378993616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5613,6 +5853,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>total Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5644,7 +5940,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461262864"/>
+        <c:crossAx val="378993224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5765,7 +6061,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5848,11 +6143,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460425160"/>
-        <c:axId val="460425552"/>
+        <c:axId val="378994400"/>
+        <c:axId val="378994792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460425160"/>
+        <c:axId val="378994400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5895,7 +6190,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460425552"/>
+        <c:crossAx val="378994792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5903,7 +6198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460425552"/>
+        <c:axId val="378994792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,7 +6249,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460425160"/>
+        <c:crossAx val="378994400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6043,7 +6338,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6182,11 +6476,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460426336"/>
-        <c:axId val="460426728"/>
+        <c:axId val="378995576"/>
+        <c:axId val="378995968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460426336"/>
+        <c:axId val="378995576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6229,7 +6523,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460426728"/>
+        <c:crossAx val="378995968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6237,7 +6531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460426728"/>
+        <c:axId val="378995968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6288,7 +6582,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460426336"/>
+        <c:crossAx val="378995576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6302,7 +6596,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6481,11 +6774,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="460427512"/>
-        <c:axId val="460427904"/>
+        <c:axId val="378996752"/>
+        <c:axId val="378997144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460427512"/>
+        <c:axId val="378996752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6528,7 +6821,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460427904"/>
+        <c:crossAx val="378997144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6536,7 +6829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460427904"/>
+        <c:axId val="378997144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6587,7 +6880,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460427512"/>
+        <c:crossAx val="378996752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6797,11 +7090,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460428688"/>
-        <c:axId val="460429080"/>
+        <c:axId val="378997928"/>
+        <c:axId val="378998320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460428688"/>
+        <c:axId val="378997928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6844,7 +7137,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460429080"/>
+        <c:crossAx val="378998320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6852,7 +7145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460429080"/>
+        <c:axId val="378998320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6903,7 +7196,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460428688"/>
+        <c:crossAx val="378997928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7004,13 +7297,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7018,8 +7325,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Rede</a:t>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ede MPI-8 EP-Classe A</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7037,13 +7368,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7059,7 +7404,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7156,17 +7501,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="460429864"/>
-        <c:axId val="460430256"/>
+        <c:axId val="378999104"/>
+        <c:axId val="378999496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460429864"/>
+        <c:axId val="378999104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7204,7 +7604,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460430256"/>
+        <c:crossAx val="378999496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7212,7 +7612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460430256"/>
+        <c:axId val="378999496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7232,6 +7632,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>total Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7263,7 +7719,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460429864"/>
+        <c:crossAx val="378999104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7464,11 +7920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460431040"/>
-        <c:axId val="460431432"/>
+        <c:axId val="379000280"/>
+        <c:axId val="379000672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460431040"/>
+        <c:axId val="379000280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7511,7 +7967,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460431432"/>
+        <c:crossAx val="379000672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7519,7 +7975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460431432"/>
+        <c:axId val="379000672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7570,7 +8026,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460431040"/>
+        <c:crossAx val="379000280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7798,11 +8254,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460432216"/>
-        <c:axId val="460432608"/>
+        <c:axId val="379001456"/>
+        <c:axId val="379001848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460432216"/>
+        <c:axId val="379001456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7845,7 +8301,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460432608"/>
+        <c:crossAx val="379001848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7853,7 +8309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460432608"/>
+        <c:axId val="379001848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7904,7 +8360,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460432216"/>
+        <c:crossAx val="379001456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8108,11 +8564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460433392"/>
-        <c:axId val="460433784"/>
+        <c:axId val="379002632"/>
+        <c:axId val="379003024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460433392"/>
+        <c:axId val="379002632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8155,7 +8611,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460433784"/>
+        <c:crossAx val="379003024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8163,7 +8619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460433784"/>
+        <c:axId val="379003024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8214,7 +8670,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460433392"/>
+        <c:crossAx val="379002632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8377,11 +8833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460434568"/>
-        <c:axId val="460434960"/>
+        <c:axId val="379939944"/>
+        <c:axId val="379940336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460434568"/>
+        <c:axId val="379939944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8424,7 +8880,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460434960"/>
+        <c:crossAx val="379940336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8432,7 +8888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460434960"/>
+        <c:axId val="379940336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8483,7 +8939,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460434568"/>
+        <c:crossAx val="379939944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8763,11 +9219,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555522184"/>
-        <c:axId val="555525320"/>
+        <c:axId val="378447256"/>
+        <c:axId val="378447648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="555522184"/>
+        <c:axId val="378447256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8865,7 +9321,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555525320"/>
+        <c:crossAx val="378447648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8873,7 +9329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555525320"/>
+        <c:axId val="378447648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8980,7 +9436,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555522184"/>
+        <c:crossAx val="378447256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9255,11 +9711,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460435744"/>
-        <c:axId val="460436136"/>
+        <c:axId val="379941120"/>
+        <c:axId val="379941512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460435744"/>
+        <c:axId val="379941120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9302,7 +9758,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460436136"/>
+        <c:crossAx val="379941512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9310,7 +9766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460436136"/>
+        <c:axId val="379941512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9361,7 +9817,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460435744"/>
+        <c:crossAx val="379941120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9554,11 +10010,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="460436920"/>
-        <c:axId val="460437312"/>
+        <c:axId val="379942296"/>
+        <c:axId val="379942688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460436920"/>
+        <c:axId val="379942296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9601,7 +10057,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460437312"/>
+        <c:crossAx val="379942688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9609,7 +10065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460437312"/>
+        <c:axId val="379942688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9660,7 +10116,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460436920"/>
+        <c:crossAx val="379942296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9729,13 +10185,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9743,13 +10213,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Rede</a:t>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Rede MPI-16 EP-Classe A</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27966666666666667"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9762,13 +10249,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -9870,16 +10371,72 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460438096"/>
-        <c:axId val="460438488"/>
+        <c:axId val="379943472"/>
+        <c:axId val="379943864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460438096"/>
+        <c:axId val="379943472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9917,7 +10474,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460438488"/>
+        <c:crossAx val="379943864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9925,7 +10482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460438488"/>
+        <c:axId val="379943864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9946,6 +10503,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>total Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9977,7 +10590,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460438096"/>
+        <c:crossAx val="379943472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10170,11 +10783,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="460439272"/>
-        <c:axId val="460439664"/>
+        <c:axId val="379944648"/>
+        <c:axId val="379945040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460439272"/>
+        <c:axId val="379944648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10217,7 +10830,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460439664"/>
+        <c:crossAx val="379945040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10225,7 +10838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460439664"/>
+        <c:axId val="379945040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10276,7 +10889,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460439272"/>
+        <c:crossAx val="379944648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10486,11 +11099,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460440448"/>
-        <c:axId val="460440840"/>
+        <c:axId val="379945824"/>
+        <c:axId val="379946216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460440448"/>
+        <c:axId val="379945824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10533,7 +11146,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460440840"/>
+        <c:crossAx val="379946216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10541,7 +11154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460440840"/>
+        <c:axId val="379946216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10593,7 +11206,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460440448"/>
+        <c:crossAx val="379945824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10786,11 +11399,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="460441624"/>
-        <c:axId val="460442016"/>
+        <c:axId val="379947000"/>
+        <c:axId val="380234480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460441624"/>
+        <c:axId val="379947000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10833,7 +11446,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460442016"/>
+        <c:crossAx val="380234480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10841,7 +11454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460442016"/>
+        <c:axId val="380234480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10892,7 +11505,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460441624"/>
+        <c:crossAx val="379947000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11102,11 +11715,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460442800"/>
-        <c:axId val="460443192"/>
+        <c:axId val="380235264"/>
+        <c:axId val="380235656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460442800"/>
+        <c:axId val="380235264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11149,7 +11762,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460443192"/>
+        <c:crossAx val="380235656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11157,7 +11770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460443192"/>
+        <c:axId val="380235656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11209,7 +11822,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460442800"/>
+        <c:crossAx val="380235264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11430,11 +12043,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460443976"/>
-        <c:axId val="460444368"/>
+        <c:axId val="380236440"/>
+        <c:axId val="380236832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460443976"/>
+        <c:axId val="380236440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11477,7 +12090,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460444368"/>
+        <c:crossAx val="380236832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11485,7 +12098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460444368"/>
+        <c:axId val="380236832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11536,7 +12149,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460443976"/>
+        <c:crossAx val="380236440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11788,11 +12401,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="460445152"/>
-        <c:axId val="460445544"/>
+        <c:axId val="380237616"/>
+        <c:axId val="380238008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460445152"/>
+        <c:axId val="380237616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11834,7 +12447,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460445544"/>
+        <c:crossAx val="380238008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11842,7 +12455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460445544"/>
+        <c:axId val="380238008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11894,7 +12507,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460445152"/>
+        <c:crossAx val="380237616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12101,11 +12714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460446328"/>
-        <c:axId val="460446720"/>
+        <c:axId val="380238792"/>
+        <c:axId val="380239184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460446328"/>
+        <c:axId val="380238792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12148,7 +12761,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460446720"/>
+        <c:crossAx val="380239184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12156,7 +12769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460446720"/>
+        <c:axId val="380239184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12207,7 +12820,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460446328"/>
+        <c:crossAx val="380238792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12589,11 +13202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="555522576"/>
-        <c:axId val="555541000"/>
+        <c:axId val="378448432"/>
+        <c:axId val="378448824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555522576"/>
+        <c:axId val="378448432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12691,7 +13304,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555541000"/>
+        <c:crossAx val="378448824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12699,7 +13312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555541000"/>
+        <c:axId val="378448824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12806,7 +13419,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555522576"/>
+        <c:crossAx val="378448432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13105,11 +13718,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460447504"/>
-        <c:axId val="460447896"/>
+        <c:axId val="380239968"/>
+        <c:axId val="380240360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460447504"/>
+        <c:axId val="380239968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13152,7 +13765,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460447896"/>
+        <c:crossAx val="380240360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13160,7 +13773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460447896"/>
+        <c:axId val="380240360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13212,7 +13825,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460447504"/>
+        <c:crossAx val="380239968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13416,11 +14029,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460448680"/>
-        <c:axId val="460449072"/>
+        <c:axId val="380241144"/>
+        <c:axId val="380241536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460448680"/>
+        <c:axId val="380241144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13463,7 +14076,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460449072"/>
+        <c:crossAx val="380241536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13471,7 +14084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460449072"/>
+        <c:axId val="380241536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13522,7 +14135,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460448680"/>
+        <c:crossAx val="380241144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13750,11 +14363,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="460449856"/>
-        <c:axId val="460450248"/>
+        <c:axId val="380242320"/>
+        <c:axId val="380242712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460449856"/>
+        <c:axId val="380242320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13797,7 +14410,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460450248"/>
+        <c:crossAx val="380242712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13805,7 +14418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460450248"/>
+        <c:axId val="380242712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13856,7 +14469,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460449856"/>
+        <c:crossAx val="380242320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14074,11 +14687,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460454560"/>
-        <c:axId val="460454952"/>
+        <c:axId val="378449608"/>
+        <c:axId val="378450000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460454560"/>
+        <c:axId val="378449608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14121,7 +14734,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460454952"/>
+        <c:crossAx val="378450000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14129,7 +14742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460454952"/>
+        <c:axId val="378450000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14180,7 +14793,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460454560"/>
+        <c:crossAx val="378449608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14264,7 +14877,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>Rede</a:t>
+              <a:t>Rede Serial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>EP-Classe A</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14304,7 +14925,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -14425,17 +15046,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="460455736"/>
-        <c:axId val="460456128"/>
+        <c:axId val="378450784"/>
+        <c:axId val="378451176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460455736"/>
+        <c:axId val="378450784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14473,7 +15149,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460456128"/>
+        <c:crossAx val="378451176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14481,7 +15157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460456128"/>
+        <c:axId val="378451176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14501,6 +15177,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>total Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14532,7 +15264,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460455736"/>
+        <c:crossAx val="378450784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14741,11 +15473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="428353496"/>
-        <c:axId val="428343304"/>
+        <c:axId val="378451960"/>
+        <c:axId val="378452352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="428353496"/>
+        <c:axId val="378451960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14788,7 +15520,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428343304"/>
+        <c:crossAx val="378452352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14796,7 +15528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428343304"/>
+        <c:axId val="378452352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14847,7 +15579,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428353496"/>
+        <c:crossAx val="378451960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15075,11 +15807,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="428341736"/>
-        <c:axId val="428355848"/>
+        <c:axId val="378453136"/>
+        <c:axId val="378453528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="428341736"/>
+        <c:axId val="378453136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15122,7 +15854,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428355848"/>
+        <c:crossAx val="378453528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15130,7 +15862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428355848"/>
+        <c:axId val="378453528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15181,7 +15913,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428341736"/>
+        <c:crossAx val="378453136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15374,11 +16106,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="437305008"/>
-        <c:axId val="437305400"/>
+        <c:axId val="378454312"/>
+        <c:axId val="378454704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="437305008"/>
+        <c:axId val="378454312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15421,7 +16153,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437305400"/>
+        <c:crossAx val="378454704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15429,7 +16161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437305400"/>
+        <c:axId val="378454704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15480,7 +16212,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437305008"/>
+        <c:crossAx val="378454312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -40064,2223 +40796,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Comparativos"/>
-      <sheetName val="ep.SER.B"/>
-      <sheetName val="ft.SER.B"/>
-      <sheetName val="is.SER.B"/>
-      <sheetName val="sp.SER.B"/>
-      <sheetName val="ep.MPI.B.2"/>
-      <sheetName val="ft.MPI.B.2"/>
-      <sheetName val="is.MPI.B.2"/>
-      <sheetName val="ep.MPI.B.4"/>
-      <sheetName val="ft.MPI.B.4"/>
-      <sheetName val="is.MPI.B.4"/>
-      <sheetName val="ep.MPI.A.8"/>
-      <sheetName val="ft.MPI.B.8"/>
-      <sheetName val="is.MPI.B.8"/>
-      <sheetName val="ep.MPI.B.16"/>
-      <sheetName val="ft.MPI.B.16"/>
-      <sheetName val="is.MPI.B.16"/>
-      <sheetName val="sp.MPI.B.4"/>
-      <sheetName val="sp.MPI.B.9"/>
-      <sheetName val="sp.MPI.B.16"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="L3">
-            <v>1052672</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>1048576</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>1060864</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>1060864</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>888832</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>761856</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>626688</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>495616</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>479232</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12">
-            <v>479232</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>466944</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14">
-            <v>466944</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15">
-            <v>585728</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16">
-            <v>585728</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="L17">
-            <v>585728</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="L18">
-            <v>585728</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="L19">
-            <v>573440</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="L20">
-            <v>581632</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="L21">
-            <v>692224</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="L22">
-            <v>692224</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="L23">
-            <v>667648</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>667648</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>659456</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>659456</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>651264</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>651264</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>643072</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>643072</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>638976</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="L32">
-            <v>634880</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>630784</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="L34">
-            <v>626688</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="L3">
-            <v>375283712</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>541802496</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>541667328</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>1079554048</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>1348014080</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>1348014080</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>1348014080</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>1347997696</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>1347870720</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12">
-            <v>1347870720</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>1347858432</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14">
-            <v>1347858432</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15">
-            <v>1347850240</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16">
-            <v>1347850240</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="L17">
-            <v>1347710976</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="L18">
-            <v>1347710976</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="L19">
-            <v>1347694592</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="L20">
-            <v>1347694592</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="L21">
-            <v>1347813376</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="L22">
-            <v>1347801088</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="L23">
-            <v>1347792896</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>1347792896</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>1347792896</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>1347792896</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>1347776512</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>1347776512</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>1347637248</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>1347637248</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>1347637248</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="L32">
-            <v>1347637248</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>1347629056</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="L34">
-            <v>1347629056</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="L35">
-            <v>1347616768</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="L36">
-            <v>1347616768</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="L37">
-            <v>1347727360</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="L38">
-            <v>1347727360</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="L39">
-            <v>1347719168</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="L40">
-            <v>1347719168</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="L41">
-            <v>1347842048</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="L42">
-            <v>1347842048</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="L43">
-            <v>1347706880</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="L44">
-            <v>1347706880</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="L45">
-            <v>1347698688</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="L46">
-            <v>1347698688</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="L47">
-            <v>1347674112</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="L48">
-            <v>1347674112</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="L49">
-            <v>1347665920</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="L50">
-            <v>1347661824</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="L51">
-            <v>1347661824</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="L52">
-            <v>1347661824</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="L53">
-            <v>1347641344</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="L54">
-            <v>1347641344</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="L55">
-            <v>1347641344</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="L56">
-            <v>1347637248</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="L57">
-            <v>1347633152</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="L58">
-            <v>1347633152</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="L3">
-            <v>21446656</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>50794496</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>80281600</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>111476736</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>269144064</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>277323776</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>277323776</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>277250048</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>277245952</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="L3">
-            <v>191844352</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>191844352</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>191709184</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>191709184</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>191688704</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>191688704</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>191606784</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>191614976</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>191479808</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12">
-            <v>191479808</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>191479808</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14">
-            <v>191479808</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15">
-            <v>191459328</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16">
-            <v>191455232</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="L17">
-            <v>191320064</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="L18">
-            <v>191320064</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="L19">
-            <v>191320064</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="L20">
-            <v>191320064</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="L21">
-            <v>191311872</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="L22">
-            <v>191311872</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="L23">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>191152128</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>191152128</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>191139840</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>191139840</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>191393792</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>191393792</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>191385600</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="L32">
-            <v>191385600</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>191377408</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="L34">
-            <v>191373312</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="L35">
-            <v>191352832</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="L36">
-            <v>191348736</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="L37">
-            <v>191213568</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="L38">
-            <v>191213568</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="L39">
-            <v>191213568</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="L40">
-            <v>191213568</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="L41">
-            <v>191197184</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="L42">
-            <v>191197184</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="L43">
-            <v>191197184</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="L44">
-            <v>191197184</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="L45">
-            <v>191188992</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="L46">
-            <v>191188992</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="L47">
-            <v>191172608</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="L48">
-            <v>191172608</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="L49">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="L50">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="L51">
-            <v>191160320</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="L52">
-            <v>191160320</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="L53">
-            <v>191152128</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="L54">
-            <v>191148032</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="L55">
-            <v>191131648</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="L56">
-            <v>191131648</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="L57">
-            <v>191123456</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="L58">
-            <v>191123456</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="L59">
-            <v>191250432</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="L60">
-            <v>191250432</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="L61">
-            <v>191238144</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="L62">
-            <v>191238144</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="L63">
-            <v>191229952</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="L64">
-            <v>191229952</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="L65">
-            <v>191221760</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="L66">
-            <v>191221760</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="L67">
-            <v>191205376</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="L68">
-            <v>191205376</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="L69">
-            <v>191197184</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="L70">
-            <v>191205376</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="L71">
-            <v>191197184</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="L72">
-            <v>191205376</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="L73">
-            <v>191193088</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="L74">
-            <v>191193088</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="L75">
-            <v>191176704</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="L76">
-            <v>191176704</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="L77">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="L78">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="L79">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="L80">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="L81">
-            <v>191160320</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="L82">
-            <v>191160320</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="L83">
-            <v>191152128</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="L84">
-            <v>191152128</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="L85">
-            <v>191131648</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="L86">
-            <v>191131648</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="L87">
-            <v>191250432</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="L88">
-            <v>191250432</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="L89">
-            <v>191250432</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="L90">
-            <v>191250432</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="L91">
-            <v>191242240</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="L92">
-            <v>191238144</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="L93">
-            <v>191229952</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="L94">
-            <v>191229952</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="L95">
-            <v>191201280</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="L96">
-            <v>191201280</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="L97">
-            <v>191184896</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="L98">
-            <v>191184896</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="L99">
-            <v>191184896</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="L100">
-            <v>191184896</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="L101">
-            <v>191176704</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="L102">
-            <v>191184896</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="L103">
-            <v>191176704</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="L104">
-            <v>191176704</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="L105">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="L106">
-            <v>191168512</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="L107">
-            <v>191148032</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="L108">
-            <v>191148032</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="L109">
-            <v>191148032</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="L110">
-            <v>191143936</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="L111">
-            <v>191139840</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="L112">
-            <v>191139840</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="L113">
-            <v>191123456</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="L114">
-            <v>191119360</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="L115">
-            <v>191107072</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="L116">
-            <v>191107072</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="L117">
-            <v>191107072</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="L118">
-            <v>191107072</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="L119">
-            <v>191102976</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="L120">
-            <v>191102976</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="L121">
-            <v>191221760</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="L122">
-            <v>191221760</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="L123">
-            <v>191213568</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="L124">
-            <v>191213568</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="L125">
-            <v>191205376</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="L126">
-            <v>191205376</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="L127">
-            <v>191062016</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="N3">
-            <v>6549504</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>6799360</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>6197248</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>6119424</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>4759552</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>4632576</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>3739648</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>3448832</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>2584576</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>2584576</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>1720320</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>1593344</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>1273856</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>1146880</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>622592</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>573440</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>176128</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>172032</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="3">
-          <cell r="N3">
-            <v>628346880</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>1211965440</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>1356206080</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>1356206080</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>1356070912</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>1889763328</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>1889476608</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>1889476608</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>1889214464</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>1889128448</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>1889005568</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>1889005568</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>1888972800</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>1888972800</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>1888702464</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>1888702464</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>1888694272</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>1888694272</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21">
-            <v>1888694272</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22">
-            <v>1888694272</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>1888550912</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>1888546816</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="N25">
-            <v>1888534528</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="N26">
-            <v>1888534528</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="N27">
-            <v>1888526336</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="N28">
-            <v>1888526336</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="N29">
-            <v>1888419840</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="N30">
-            <v>1888419840</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="N31">
-            <v>1888555008</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="N32">
-            <v>1888555008</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="N33">
-            <v>1888550912</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="N34">
-            <v>1888665600</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="N35">
-            <v>1888653312</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="N36">
-            <v>1888653312</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="N37">
-            <v>1888505856</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="N38">
-            <v>1888505856</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="N39">
-            <v>1888497664</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="3">
-          <cell r="N3">
-            <v>58183680</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>117809152</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>418078720</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>417955840</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>417955840</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="3">
-          <cell r="N3">
-            <v>15568896</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>16318464</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>17326080</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>17244160</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>16859136</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>16855040</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>16859136</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>16859136</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>16707584</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>16707584</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>16535552</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="3">
-          <cell r="N3">
-            <v>912359424</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>1365725184</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>1896464384</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>1896460288</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>1896226816</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>1896226816</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>1895665664</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>1895612416</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>1895329792</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>1895264256</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>1895129088</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>1895129088</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>1894866944</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>1894862848</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>1894383616</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>1894383616</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>1894367232</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>1894367232</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21">
-            <v>1894105088</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="3">
-          <cell r="N3">
-            <v>83218432</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>438046720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>438747136</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="3">
-          <cell r="N3">
-            <v>33271808</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>34058240</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>34058240</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>33652736</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>33525760</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="3">
-          <cell r="N3">
-            <v>1387773952</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>1909563392</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>1909563392</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>1909022720</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>1908768768</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>1908240384</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>1907859456</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>1907138560</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>1907011584</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>1906307072</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="3">
-          <cell r="N3">
-            <v>338300928</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="3">
-          <cell r="N3">
-            <v>396685312</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>397606912</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>397881344</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>397873152</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>397639680</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>397623296</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>397176832</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>396963840</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>396550144</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>396533760</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>396263424</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>396140544</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>395898880</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>395890688</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>395800576</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>395792384</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>395530240</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>395517952</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21">
-            <v>395513856</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22">
-            <v>395509760</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>395116544</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>395116544</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="N25">
-            <v>394997760</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="N26">
-            <v>394989568</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="N27">
-            <v>394989568</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="N28">
-            <v>394977280</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="N29">
-            <v>394850304</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="N30">
-            <v>394842112</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="N31">
-            <v>394706944</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="N32">
-            <v>394694656</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="N33">
-            <v>394575872</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="N34">
-            <v>394473472</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="N35">
-            <v>394596352</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="N36">
-            <v>394588160</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="N37">
-            <v>394485760</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="N38">
-            <v>394481664</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="N39">
-            <v>394854400</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="N40">
-            <v>394838016</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="N41">
-            <v>394846208</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="N42">
-            <v>394842112</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="N43">
-            <v>395214848</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="N44">
-            <v>395210752</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="N45">
-            <v>395079680</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="N46">
-            <v>395075584</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="N47">
-            <v>394940416</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="N48">
-            <v>394936320</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="N49">
-            <v>394924032</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="N50">
-            <v>394907648</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="3">
-          <cell r="N3">
-            <v>444628992</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>444817408</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>445575168</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>445931520</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>445534208</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>445145088</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>445001728</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>444555264</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>444067840</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>443658240</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>443527168</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>443248640</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>443006976</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>442703872</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>442515456</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>442449920</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>442183680</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>442183680</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21">
-            <v>442175488</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22">
-            <v>442171392</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>442298368</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>442298368</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="N25">
-            <v>442163200</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="N26">
-            <v>442163200</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="N27">
-            <v>442150912</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="N28">
-            <v>442146816</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="N29">
-            <v>442007552</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="N30">
-            <v>441872384</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="N31">
-            <v>441856000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="19">
-        <row r="3">
-          <cell r="N3">
-            <v>510869504</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>511926272</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>511266816</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>512274432</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>511823872</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>510988288</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>510844928</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>510267392</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>509734912</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>508911616</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>508665856</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>508456960</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>508375040</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>507711488</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>507711488</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>507109376</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>507023360</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>507015168</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21">
-            <v>507015168</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22">
-            <v>506830848</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>506814464</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>506683392</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -42547,7 +41062,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42943,7 +41458,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43533,7 +42048,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44645,7 +43160,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44732,7 +43247,7 @@
         <v>12218</v>
       </c>
       <c r="L3">
-        <f>C3-M3</f>
+        <f t="shared" ref="L3:L9" si="0">C3-M3</f>
         <v>1826816</v>
       </c>
       <c r="M3">
@@ -44771,7 +43286,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f>C4-M4</f>
+        <f t="shared" si="0"/>
         <v>1826816</v>
       </c>
       <c r="M4">
@@ -44810,7 +43325,7 @@
         <v>658</v>
       </c>
       <c r="L5">
-        <f>C5-M5</f>
+        <f t="shared" si="0"/>
         <v>1691648</v>
       </c>
       <c r="M5">
@@ -44849,7 +43364,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f>C6-M6</f>
+        <f t="shared" si="0"/>
         <v>1687552</v>
       </c>
       <c r="M6">
@@ -44888,7 +43403,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f>C7-M7</f>
+        <f t="shared" si="0"/>
         <v>1413120</v>
       </c>
       <c r="M7">
@@ -44927,7 +43442,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f>C8-M8</f>
+        <f t="shared" si="0"/>
         <v>1286144</v>
       </c>
       <c r="M8">
@@ -44966,7 +43481,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f>C9-M9</f>
+        <f t="shared" si="0"/>
         <v>2113536</v>
       </c>
       <c r="M9">
@@ -46693,7 +45208,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O7"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47291,7 +45806,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
